--- a/data/trans_dic/P36B13_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_2023-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>80,78; 91,95</t>
+          <t>81,87; 92,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79,71; 90,76</t>
+          <t>79,7; 90,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>82,15; 89,96</t>
+          <t>82,63; 90,38</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>76,1; 86,09</t>
+          <t>75,8; 85,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,3; 92,52</t>
+          <t>86,53; 92,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>83,1; 88,83</t>
+          <t>82,9; 88,66</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>82,02; 88,47</t>
+          <t>81,73; 88,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>83,1; 88,27</t>
+          <t>83,1; 88,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>83,53; 87,58</t>
+          <t>83,64; 87,59</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,01; 89,48</t>
+          <t>83,28; 89,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85,02; 89,37</t>
+          <t>85,14; 89,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>84,91; 88,72</t>
+          <t>85,13; 88,83</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>77,17; 83,72</t>
+          <t>77,45; 83,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>85,54; 89,93</t>
+          <t>85,52; 89,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>82,1; 86,07</t>
+          <t>82,3; 86,14</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>83,01; 87,66</t>
+          <t>83,2; 87,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>88,92; 94,0</t>
+          <t>88,65; 93,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>86,96; 91,06</t>
+          <t>86,99; 90,72</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>83,1; 86,06</t>
+          <t>82,98; 86,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>87,24; 89,65</t>
+          <t>87,2; 89,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>85,58; 87,51</t>
+          <t>85,61; 87,48</t>
         </is>
       </c>
     </row>
